--- a/tut05/output/0401CS35.xlsx
+++ b/tut05/output/0401CS35.xlsx
@@ -553,22 +553,22 @@
         <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>9.204545454545455</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D6" t="n">
         <v>9</v>
       </c>
       <c r="E6" t="n">
-        <v>9.382978723404255</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>9.547619047619047</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="G6" t="n">
         <v>9.15</v>
       </c>
       <c r="H6" t="n">
-        <v>9.707317073170731</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="I6" t="n">
         <v>9.550000000000001</v>
@@ -615,25 +615,25 @@
         <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>9.096774193548388</v>
+        <v>9.1</v>
       </c>
       <c r="D8" t="n">
-        <v>9.066176470588236</v>
+        <v>9.07</v>
       </c>
       <c r="E8" t="n">
-        <v>9.147540983606557</v>
+        <v>9.15</v>
       </c>
       <c r="F8" t="n">
-        <v>9.222222222222221</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>9.211320754716981</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>9.277777777777779</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>9.309248554913294</v>
+        <v>9.31</v>
       </c>
     </row>
   </sheetData>
